--- a/resultat/croisement_recence_frequence.xlsx
+++ b/resultat/croisement_recence_frequence.xlsx
@@ -412,10 +412,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="D2">
-        <v>18.281361580576053</v>
+        <v>18.55473408061054</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D3">
-        <v>10.378481313972864</v>
+        <v>10.422132124970188</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -440,10 +440,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>2.9754820280885506</v>
+        <v>2.861912711662294</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D5">
-        <v>10.806950726017615</v>
+        <v>10.970665394705462</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D6">
-        <v>11.592477981432992</v>
+        <v>11.59074648223229</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D7">
-        <v>7.522018567007855</v>
+        <v>7.464822322919151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D8">
-        <v>9.402523208759819</v>
+        <v>9.44431194848557</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D9">
-        <v>13.282551773387288</v>
+        <v>13.35559265442404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,10 +524,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D10">
-        <v>15.758152820756962</v>
+        <v>15.33508227999046</v>
       </c>
     </row>
   </sheetData>

--- a/resultat/croisement_recence_frequence.xlsx
+++ b/resultat/croisement_recence_frequence.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benze\OneDrive\Bureau\M2 MOSEF 2024-2025\CRM Analytics\Projet_CRM_Analytics\Segmentation_RFM\resultat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30887E91-3A76-492B-A1B9-AE663A6DF860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="croisement_recence_frequence" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Détails1" sheetId="6" r:id="rId2"/>
+    <sheet name="Détails2" sheetId="7" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
+    <sheet name="croisement_recence_frequence" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="croisement_recence_frequence">'croisement_recence_frequence'!$A$1:$D$10</definedName>
+    <definedName name="croisement_recence_frequence">croisement_recence_frequence!$A$1:$D$10</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId7"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>seg_recence</t>
   </si>
@@ -47,16 +61,34 @@
   </si>
   <si>
     <t>R3</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>(vide)</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Somme de PERCENT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Détails pou for Somme de PERCENT - seg_recence: R1, seg_frequence: F1</t>
+  </si>
+  <si>
+    <t>Détails pou for Somme de PERCENT - seg_recence: R1, seg_frequence: F3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +96,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,38 +143,576 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lina Benzemma" refreshedDate="45662.902786689818" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{33686D50-5599-4030-B64D-4CDC86012123}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D11" sheet="croisement_recence_frequence"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="seg_recence" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="R1"/>
+        <s v="R2"/>
+        <s v="R3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="seg_frequence" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="F1"/>
+        <s v="F2"/>
+        <s v="F3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COUNT" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="120" maxValue="778"/>
+    </cacheField>
+    <cacheField name="PERCENT" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.8619127116622942" maxValue="18.55473408061054"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lina Benzemma" refreshedDate="45663.507073263892" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{5385EE75-876A-4064-85A2-79C457A8F69D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D10" sheet="croisement_recence_frequence"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="seg_recence" numFmtId="0">
+      <sharedItems count="3">
+        <s v="R1"/>
+        <s v="R2"/>
+        <s v="R3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="seg_frequence" numFmtId="0">
+      <sharedItems count="3">
+        <s v="F1"/>
+        <s v="F2"/>
+        <s v="F3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COUNT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="120" maxValue="778"/>
+    </cacheField>
+    <cacheField name="PERCENT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.8619127116622942" maxValue="18.55473408061054"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="778"/>
+    <n v="18.55473408061054"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="437"/>
+    <n v="10.422132124970188"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="2.8619127116622942"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="460"/>
+    <n v="10.970665394705462"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="486"/>
+    <n v="11.590746482232291"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="313"/>
+    <n v="7.4648223229191508"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="396"/>
+    <n v="9.44431194848557"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="560"/>
+    <n v="13.35559265442404"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="643"/>
+    <n v="15.335082279990459"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="778"/>
+    <n v="18.55473408061054"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="437"/>
+    <n v="10.422132124970188"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="2.8619127116622942"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="460"/>
+    <n v="10.970665394705462"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="486"/>
+    <n v="11.590746482232291"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="313"/>
+    <n v="7.4648223229191508"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="396"/>
+    <n v="9.44431194848557"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="560"/>
+    <n v="13.35559265442404"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="643"/>
+    <n v="15.335082279990459"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DE63E25-926F-4DF4-9110-971319FDE8C1}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="">
+  <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de PERCENT" fld="3" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{489CD6A7-B284-453F-B591-8F0BB5BC0F5B}" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="" colHeaderCaption="">
+  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de PERCENT" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="2" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BCC89A2D-F748-4C94-93C5-E3213B8B61F3}" name="Tableau3" displayName="Tableau3" ref="A3:D4" totalsRowShown="0">
+  <autoFilter ref="A3:D4" xr:uid="{BCC89A2D-F748-4C94-93C5-E3213B8B61F3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D4">
+    <sortCondition ref="D3:D4"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9FB29AA3-D6BD-4222-9343-B05DE23033D6}" name="seg_recence"/>
+    <tableColumn id="2" xr3:uid="{6F14C184-A625-442E-893F-0B203515B04C}" name="seg_frequence"/>
+    <tableColumn id="3" xr3:uid="{5323B99A-A295-4F05-8B25-14A87B26B54E}" name="COUNT"/>
+    <tableColumn id="4" xr3:uid="{C61A07F8-84D5-4730-B8C7-3A4A6808B06C}" name="PERCENT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8B22B667-6A92-4A7D-80F7-2EE1A9C04385}" name="Tableau4" displayName="Tableau4" ref="A3:D4" totalsRowShown="0">
+  <autoFilter ref="A3:D4" xr:uid="{8B22B667-6A92-4A7D-80F7-2EE1A9C04385}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D4">
+    <sortCondition ref="D3:D4"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2C3F8A85-EC79-4662-A95A-AB80DB1E6B18}" name="seg_recence"/>
+    <tableColumn id="2" xr3:uid="{60C6CDED-BA28-40D1-B0B1-87F3526C7D58}" name="seg_frequence"/>
+    <tableColumn id="3" xr3:uid="{98F4E89F-F860-4D9C-826C-CD6DA7539FB4}" name="COUNT"/>
+    <tableColumn id="4" xr3:uid="{2C85D75D-8D31-40D1-BBDA-E3D0AA675BAF}" name="PERCENT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,39 +720,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -235,159 +831,538 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665EE035-2CFC-4998-AB92-080E29196A64}">
+  <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>18.55473408061054</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10.422132124970188</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.8619127116622942</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>31.838778917243022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.970665394705462</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11.590746482232291</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.4648223229191508</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>30.026234199856905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.44431194848557</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13.35559265442404</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15.335082279990459</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>38.134986882900066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>38.96971142380157</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35.368471261626524</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25.661817314571906</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645D2C-A1AB-45B9-AEB6-9C324C1391A3}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>778</v>
+      </c>
+      <c r="D4">
+        <v>18.55473408061054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA54A89-F9C5-4E7E-B326-E3175D3E52B7}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>2.8619127116622942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FED88-B622-4516-81D1-88E2E9640873}">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>18.55473408061054</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10.422132124970188</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.8619127116622942</v>
+      </c>
+      <c r="E5" s="3">
+        <v>31.838778917243022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10.970665394705462</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11.590746482232291</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7.4648223229191508</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30.026234199856905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9.44431194848557</v>
+      </c>
+      <c r="C7" s="7">
+        <v>13.35559265442404</v>
+      </c>
+      <c r="D7" s="7">
+        <v>15.335082279990459</v>
+      </c>
+      <c r="E7" s="3">
+        <v>38.134986882900066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>38.96971142380157</v>
+      </c>
+      <c r="C8" s="3">
+        <v>35.368471261626524</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25.661817314571906</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,7 +1418,7 @@
         <v>120</v>
       </c>
       <c r="D4">
-        <v>2.861912711662294</v>
+        <v>2.8619127116622942</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,7 +1446,7 @@
         <v>486</v>
       </c>
       <c r="D6">
-        <v>11.59074648223229</v>
+        <v>11.590746482232291</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,7 +1460,7 @@
         <v>313</v>
       </c>
       <c r="D7">
-        <v>7.464822322919151</v>
+        <v>7.4648223229191508</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,7 +1502,7 @@
         <v>643</v>
       </c>
       <c r="D10">
-        <v>15.33508227999046</v>
+        <v>15.335082279990459</v>
       </c>
     </row>
   </sheetData>
